--- a/Example_Systems/Input_data_explained/Reserves.xlsx
+++ b/Example_Systems/Input_data_explained/Reserves.xlsx
@@ -1,236 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\r900emrp\Maps\Major Studies\2021\GenX\Excel Sheets for GenX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/D/GenX/Code/New_GenX/GenX/Example_Systems/Input_data_explained/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BEDC86-96B4-4D25-BC1D-746A3C717D6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F6FF7B-9F2E-484F-A91A-B9D46BBDCC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reserves" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Con Edison</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{2EB244F9-98A3-49E3-BE56-2BF2500D7521}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Con Edison:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-[0,1], Regulation requirement as a percent of time-dependent load; here load is the total across all model zones.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{31E6845F-8881-4D3D-897B-66531E5BD67B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Con Edison:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-[0,1], Regulation requirement as a percent of time-dependent wind and solar generation (summed across all model zones).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{837750D9-4447-4091-996A-1879C2B9BDE6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Con Edison:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Spinning up or contingency reserve requirement as a percent of time-dependent load (which is summed across all zones).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{C34B4B4E-CFEF-45A8-9E7B-B9AD07C180DA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Con Edison:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-[0,1], Spinning up or contingency reserve requirement as a percent of time-dependent wind and solar generation (which is summed across all zones).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{8E773ADC-8E4F-4F5A-8D86-7DDA6D91CE60}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Con Edison:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Penalty for not meeting time-dependent spinning reserve requirement (/MW per time step).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{3111E247-BBE1-43E7-AA69-5CEAF2777024}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Con Edison:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Flags to include capacity (generation or transmission) contingency to be added to the spinning reserve requirement.
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Reg_Req_Percent_Load</t>
+  </si>
+  <si>
+    <t>Reg_Req_Percent_VRE</t>
+  </si>
+  <si>
+    <t>Rsv_Req_Percent_Load</t>
+  </si>
+  <si>
+    <t>Rsv_Req_Percent_VRE</t>
+  </si>
+  <si>
+    <t>Unmet_Rsv_Penalty_Dollar_per_MW</t>
+  </si>
+  <si>
+    <t>Dynamic_Contingency</t>
+  </si>
+  <si>
+    <t>Static_Contingency_MW</t>
+  </si>
+  <si>
+    <t>This file includes parameter inputs needed to model time-dependent procurement of regulation and spinning reserves. This file is needed if Reserves flag is activated in the YAML file GenX_settings.yml.</t>
+  </si>
+  <si>
+    <t>[0,1], Regulation requirement as a percent of time-dependent load; here load is the total across all model zones.</t>
+  </si>
+  <si>
+    <t>[0,1], Regulation requirement as a percent of time-dependent wind and solar generation (summed across all model zones).</t>
+  </si>
+  <si>
+    <t>Spinning up or contingency reserve requirement as a percent of time-dependent load (which is summed across all zones).</t>
+  </si>
+  <si>
+    <t>[0,1], Spinning up or contingency reserve requirement as a percent of time-dependent wind and solar generation (which is summed across all zones).</t>
+  </si>
+  <si>
+    <t>Penalty for not meeting time-dependent spinning reserve requirement (/MW per time step).</t>
+  </si>
+  <si>
+    <t>Flags to include capacity (generation or transmission) contingency to be added to the spinning reserve requirement.
  = 1: contingency set to be equal to largest installed thermal unit (only applied when UCommit = 1).
  = 2: contingency set to be equal to largest committed thermal unit each time period (only applied when UCommit = 1).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{013F33C9-7E64-4BA1-8185-E5000D71B651}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Con Edison:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-A fixed static contingency in MW added to reserve requirement. Applied when UCommit = 1 and DynamicContingency = 0, or when UCommit = 2. Contingency term not included in operating reserve requirement when this value is set to 0 and DynamicContingency is not active.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Reg_Req_Percent_Load</t>
-  </si>
-  <si>
-    <t>Reg_Req_Percent_VRE</t>
-  </si>
-  <si>
-    <t>Rsv_Req_Percent_Load</t>
-  </si>
-  <si>
-    <t>Rsv_Req_Percent_VRE</t>
-  </si>
-  <si>
-    <t>Unmet_Rsv_Penalty_Dollar_per_MW</t>
-  </si>
-  <si>
-    <t>Dynamic_Contingency</t>
-  </si>
-  <si>
-    <t>Static_Contingency_MW</t>
-  </si>
-  <si>
-    <t>This file includes parameter inputs needed to model time-dependent procurement of regulation and spinning reserves. This file is needed if Reserves flag is activated in the YAML file GenX_settings.yml.</t>
+  </si>
+  <si>
+    <t>A fixed static contingency in MW added to reserve requirement. Applied when UCommit = 1 and DynamicContingency = 0, or when UCommit = 2. Contingency term not included in operating reserve requirement when this value is set to 0 and DynamicContingency is not active.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,14 +221,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -726,8 +573,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -787,10 +643,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1089,69 +941,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>0.01</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>1000</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>0</v>
       </c>
     </row>
@@ -1161,6 +1036,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>